--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Reln-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Reln-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Vldlr</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H2">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I2">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J2">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.196272</v>
+        <v>0.104012</v>
       </c>
       <c r="N2">
-        <v>0.588816</v>
+        <v>0.312036</v>
       </c>
       <c r="O2">
-        <v>0.02813229386822481</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P2">
-        <v>0.03089009369338271</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q2">
-        <v>0.019363410432</v>
+        <v>0.005294176129333333</v>
       </c>
       <c r="R2">
-        <v>0.174270693888</v>
+        <v>0.047647585164</v>
       </c>
       <c r="S2">
-        <v>0.0002839406121366367</v>
+        <v>0.0003894423033818521</v>
       </c>
       <c r="T2">
-        <v>0.0004598433149314993</v>
+        <v>0.0006050199292565181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H3">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I3">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J3">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>14.425447</v>
       </c>
       <c r="O3">
-        <v>0.6892151609068061</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P3">
-        <v>0.7567787040415452</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q3">
-        <v>0.4743856330773333</v>
+        <v>0.2447501479392222</v>
       </c>
       <c r="R3">
-        <v>4.269470697696</v>
+        <v>2.202751331453</v>
       </c>
       <c r="S3">
-        <v>0.006956282185817996</v>
+        <v>0.01800394604145941</v>
       </c>
       <c r="T3">
-        <v>0.01126573559116711</v>
+        <v>0.02797011538230734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H4">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I4">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J4">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03080033333333333</v>
+        <v>2.1739945</v>
       </c>
       <c r="N4">
-        <v>0.092401</v>
+        <v>4.347989</v>
       </c>
       <c r="O4">
-        <v>0.004414710343669059</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P4">
-        <v>0.004847482995302872</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q4">
-        <v>0.003038637685333333</v>
+        <v>0.1106555953851667</v>
       </c>
       <c r="R4">
-        <v>0.027347739168</v>
+        <v>0.663933572311</v>
       </c>
       <c r="S4">
-        <v>4.455788650790292E-05</v>
+        <v>0.008139882183012325</v>
       </c>
       <c r="T4">
-        <v>7.216173158165789E-05</v>
+        <v>0.008430501599777332</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H5">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I5">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J5">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.868607</v>
+        <v>0.047446</v>
       </c>
       <c r="N5">
-        <v>3.737214</v>
+        <v>0.142338</v>
       </c>
       <c r="O5">
-        <v>0.267833421212511</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P5">
-        <v>0.1960593642364025</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q5">
-        <v>0.184349292192</v>
+        <v>0.002414985584666666</v>
       </c>
       <c r="R5">
-        <v>1.106095753152</v>
+        <v>0.021734870262</v>
       </c>
       <c r="S5">
-        <v>0.002703255764565523</v>
+        <v>0.0001776475745707741</v>
       </c>
       <c r="T5">
-        <v>0.002918624620201231</v>
+        <v>0.0002759852282765908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09865600000000001</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H6">
-        <v>0.295968</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I6">
-        <v>0.01009304870291239</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J6">
-        <v>0.01488643315542961</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.072589</v>
+        <v>0.104012</v>
       </c>
       <c r="N6">
-        <v>0.217767</v>
+        <v>0.312036</v>
       </c>
       <c r="O6">
-        <v>0.01040441366878908</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P6">
-        <v>0.01142435503336674</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q6">
-        <v>0.007161340384000001</v>
+        <v>0.02431537062933333</v>
       </c>
       <c r="R6">
-        <v>0.06445206345600001</v>
+        <v>0.218838335664</v>
       </c>
       <c r="S6">
-        <v>0.0001050122538843356</v>
+        <v>0.001788651097760785</v>
       </c>
       <c r="T6">
-        <v>0.0001700678975481098</v>
+        <v>0.002778767358436521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +853,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I7">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J7">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.196272</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N7">
-        <v>0.588816</v>
+        <v>14.425447</v>
       </c>
       <c r="O7">
-        <v>0.02813229386822481</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P7">
-        <v>0.03089009369338271</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q7">
-        <v>0.045883421376</v>
+        <v>1.124101354647556</v>
       </c>
       <c r="R7">
-        <v>0.4129507923840001</v>
+        <v>10.116912191828</v>
       </c>
       <c r="S7">
-        <v>0.0006728239737610641</v>
+        <v>0.0826894704849441</v>
       </c>
       <c r="T7">
-        <v>0.001089641964675299</v>
+        <v>0.1284626173084389</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +915,40 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I8">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J8">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.808482333333333</v>
+        <v>2.1739945</v>
       </c>
       <c r="N8">
-        <v>14.425447</v>
+        <v>4.347989</v>
       </c>
       <c r="O8">
-        <v>0.6892151609068061</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P8">
-        <v>0.7567787040415452</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q8">
-        <v>1.124101354647556</v>
+        <v>0.5082248395726667</v>
       </c>
       <c r="R8">
-        <v>10.116912191828</v>
+        <v>3.049349037436</v>
       </c>
       <c r="S8">
-        <v>0.01648356460051972</v>
+        <v>0.03738527909232501</v>
       </c>
       <c r="T8">
-        <v>0.02669521957691264</v>
+        <v>0.03872005123780927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +977,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I9">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J9">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +989,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03080033333333333</v>
+        <v>0.047446</v>
       </c>
       <c r="N9">
-        <v>0.092401</v>
+        <v>0.142338</v>
       </c>
       <c r="O9">
-        <v>0.004414710343669059</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P9">
-        <v>0.004847482995302872</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q9">
-        <v>0.007200337658222223</v>
+        <v>0.01109167283466667</v>
       </c>
       <c r="R9">
-        <v>0.06480303892400001</v>
+        <v>0.09982505551200001</v>
       </c>
       <c r="S9">
-        <v>0.0001055841009746612</v>
+        <v>0.0008159091257197072</v>
       </c>
       <c r="T9">
-        <v>0.0001709940069189055</v>
+        <v>0.001267559474756559</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,60 +1024,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2337746666666667</v>
+        <v>1.620901</v>
       </c>
       <c r="H10">
-        <v>0.7013240000000001</v>
+        <v>3.241802</v>
       </c>
       <c r="I10">
-        <v>0.02391642775070728</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J10">
-        <v>0.03527480283780177</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.868607</v>
+        <v>0.104012</v>
       </c>
       <c r="N10">
-        <v>3.737214</v>
+        <v>0.312036</v>
       </c>
       <c r="O10">
-        <v>0.267833421212511</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P10">
-        <v>0.1960593642364025</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q10">
-        <v>0.436832978556</v>
+        <v>0.168593154812</v>
       </c>
       <c r="R10">
-        <v>2.620997871336</v>
+        <v>1.011558928872</v>
       </c>
       <c r="S10">
-        <v>0.006405618667653768</v>
+        <v>0.01240179868225622</v>
       </c>
       <c r="T10">
-        <v>0.00691595541794386</v>
+        <v>0.01284458193376276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1089,55 +1086,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.620901</v>
+      </c>
+      <c r="H11">
+        <v>3.241802</v>
+      </c>
+      <c r="I11">
+        <v>0.8506097720968261</v>
+      </c>
+      <c r="J11">
+        <v>0.791489382480941</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.2337746666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.7013240000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.02391642775070728</v>
-      </c>
-      <c r="J11">
-        <v>0.03527480283780177</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.072589</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N11">
-        <v>0.217767</v>
+        <v>14.425447</v>
       </c>
       <c r="O11">
-        <v>0.01040441366878908</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P11">
-        <v>0.01142435503336674</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q11">
-        <v>0.01696946927866667</v>
+        <v>7.794073822582333</v>
       </c>
       <c r="R11">
-        <v>0.152725223508</v>
+        <v>46.764442935494</v>
       </c>
       <c r="S11">
-        <v>0.0002488364077980653</v>
+        <v>0.5733360560818525</v>
       </c>
       <c r="T11">
-        <v>0.0004029918713510601</v>
+        <v>0.5938059580389833</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H12">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I12">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J12">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.196272</v>
+        <v>2.1739945</v>
       </c>
       <c r="N12">
-        <v>0.588816</v>
+        <v>4.347989</v>
       </c>
       <c r="O12">
-        <v>0.02813229386822481</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P12">
-        <v>0.03089009369338271</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q12">
-        <v>1.85324291316</v>
+        <v>3.5238298590445</v>
       </c>
       <c r="R12">
-        <v>11.11945747896</v>
+        <v>14.095319436178</v>
       </c>
       <c r="S12">
-        <v>0.02717552928232711</v>
+        <v>0.2592147264289916</v>
       </c>
       <c r="T12">
-        <v>0.02934060841377591</v>
+        <v>0.178979672081424</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,232 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H13">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I13">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J13">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>4.808482333333333</v>
+        <v>0.047446</v>
       </c>
       <c r="N13">
-        <v>14.425447</v>
+        <v>0.142338</v>
       </c>
       <c r="O13">
-        <v>0.6892151609068061</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P13">
-        <v>0.7567787040415452</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q13">
-        <v>45.40273603624083</v>
+        <v>0.07690526884599999</v>
       </c>
       <c r="R13">
-        <v>272.416416217445</v>
+        <v>0.4614316130759999</v>
       </c>
       <c r="S13">
-        <v>0.6657753141204683</v>
+        <v>0.005657190903725806</v>
       </c>
       <c r="T13">
-        <v>0.7188177488734655</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>9.4422175</v>
-      </c>
-      <c r="H14">
-        <v>18.884435</v>
-      </c>
-      <c r="I14">
-        <v>0.9659905235463803</v>
-      </c>
-      <c r="J14">
-        <v>0.9498387640067686</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.03080033333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.092401</v>
-      </c>
-      <c r="O14">
-        <v>0.004414710343669059</v>
-      </c>
-      <c r="P14">
-        <v>0.004847482995302872</v>
-      </c>
-      <c r="Q14">
-        <v>0.2908234464058333</v>
-      </c>
-      <c r="R14">
-        <v>1.744940678435</v>
-      </c>
-      <c r="S14">
-        <v>0.004264568356186495</v>
-      </c>
-      <c r="T14">
-        <v>0.004604327256802308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>9.4422175</v>
-      </c>
-      <c r="H15">
-        <v>18.884435</v>
-      </c>
-      <c r="I15">
-        <v>0.9659905235463803</v>
-      </c>
-      <c r="J15">
-        <v>0.9498387640067686</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.868607</v>
-      </c>
-      <c r="N15">
-        <v>3.737214</v>
-      </c>
-      <c r="O15">
-        <v>0.267833421212511</v>
-      </c>
-      <c r="P15">
-        <v>0.1960593642364025</v>
-      </c>
-      <c r="Q15">
-        <v>17.6437937160225</v>
-      </c>
-      <c r="R15">
-        <v>70.57517486409</v>
-      </c>
-      <c r="S15">
-        <v>0.2587245467802917</v>
-      </c>
-      <c r="T15">
-        <v>0.1862247841982574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>9.4422175</v>
-      </c>
-      <c r="H16">
-        <v>18.884435</v>
-      </c>
-      <c r="I16">
-        <v>0.9659905235463803</v>
-      </c>
-      <c r="J16">
-        <v>0.9498387640067686</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.072589</v>
-      </c>
-      <c r="N16">
-        <v>0.217767</v>
-      </c>
-      <c r="O16">
-        <v>0.01040441366878908</v>
-      </c>
-      <c r="P16">
-        <v>0.01142435503336674</v>
-      </c>
-      <c r="Q16">
-        <v>0.6854011261075</v>
-      </c>
-      <c r="R16">
-        <v>4.112406756645</v>
-      </c>
-      <c r="S16">
-        <v>0.01005056500710668</v>
-      </c>
-      <c r="T16">
-        <v>0.01085129526446757</v>
+        <v>0.005859170426771024</v>
       </c>
     </row>
   </sheetData>
